--- a/amazon_edit.xlsx
+++ b/amazon_edit.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://galvanizehq-my.sharepoint.com/personal/sean_reed_galvanizehq_onmicrosoft_com/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/galvanize/Documents/excel/excel_work/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{B59A292A-9934-4F49-8D4A-4DCF5B6A418E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{EE5AE362-FB7A-0745-843B-7ACE9F7BDE88}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA4CFD18-821A-8043-80DE-DA7C0430B961}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="15440" xr2:uid="{09650164-32A5-5E41-B315-3AC4BDEF06DC}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="16540" windowHeight="16260" xr2:uid="{09650164-32A5-5E41-B315-3AC4BDEF06DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Amazon-1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>Total net sales</t>
   </si>
@@ -55,13 +56,37 @@
   </si>
   <si>
     <t>other expenses</t>
+  </si>
+  <si>
+    <t>Total Net Sales</t>
+  </si>
+  <si>
+    <t>Cost of Sales</t>
+  </si>
+  <si>
+    <t>Marketing Expenses</t>
+  </si>
+  <si>
+    <t>Other Expenses</t>
+  </si>
+  <si>
+    <t>Operating Income</t>
+  </si>
+  <si>
+    <t>2016- 2017 Percentage Growth</t>
+  </si>
+  <si>
+    <t>2017- 2018 Percentage Growth</t>
+  </si>
+  <si>
+    <t>Projections for 2019</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -91,16 +116,72 @@
       <color theme="1"/>
       <name val="Inherit"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB80001"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB7B4FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -108,24 +189,104 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFB7B4FF"/>
+      <color rgb="FF9381FF"/>
+      <color rgb="FFB80001"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -437,7 +598,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="177" zoomScaleNormal="177" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:A17"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -455,7 +616,7 @@
       <c r="B2" s="2">
         <v>2016</v>
       </c>
-      <c r="C2" s="3"/>
+      <c r="C2" s="4"/>
       <c r="E2" s="2">
         <v>2017</v>
       </c>
@@ -464,241 +625,241 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="13">
         <v>135987</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="5">
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="13">
         <v>177866</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="5">
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="13">
         <v>232887</v>
       </c>
-      <c r="I3" s="4"/>
+      <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="4"/>
+      <c r="A4" s="14"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="5"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="13">
         <v>88265</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="5">
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="13">
         <v>111934</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="5">
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="13">
         <v>139156</v>
       </c>
-      <c r="I6" s="4"/>
+      <c r="I6" s="5"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="4"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="5"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="13">
         <v>7233</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="5">
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="13">
         <v>10069</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="5">
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="13">
         <v>13814</v>
       </c>
-      <c r="I8" s="4"/>
+      <c r="I8" s="5"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="4"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="5"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="13">
         <f>B14-B8-B6</f>
         <v>36303</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="5">
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="13">
         <f>E14-E8-E6</f>
         <v>51757</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="5">
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="13">
         <f>H14-H8-H6</f>
         <v>67496</v>
       </c>
-      <c r="I10" s="4"/>
+      <c r="I10" s="5"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="4"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="4"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="5"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="5"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="5"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="13">
         <v>131801</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="5">
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="13">
         <v>173760</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="5">
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="13">
         <v>220466</v>
       </c>
-      <c r="I14" s="4"/>
+      <c r="I14" s="5"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="4"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="4"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="5"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="13">
         <v>4186</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="5">
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="13">
         <v>4106</v>
       </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="5">
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="13">
         <v>12421</v>
       </c>
-      <c r="I16" s="4"/>
+      <c r="I16" s="5"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="4"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="5"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="3"/>
@@ -712,26 +873,26 @@
       <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="3"/>
@@ -745,26 +906,26 @@
       <c r="I23" s="3"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="4"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="4"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="5"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="4"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="5"/>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="3"/>
@@ -778,71 +939,82 @@
       <c r="I26" s="3"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="6"/>
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="7"/>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="6"/>
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="111">
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="L29:L30"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
+  <mergeCells count="55">
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
     <mergeCell ref="G24:G25"/>
     <mergeCell ref="H24:H25"/>
     <mergeCell ref="I24:I25"/>
@@ -859,88 +1031,153 @@
     <mergeCell ref="D24:D25"/>
     <mergeCell ref="E24:E25"/>
     <mergeCell ref="F24:F25"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5907B499-E589-944F-8AF7-352125E4A47D}">
+  <dimension ref="A1:N9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="19.1640625" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="22.5" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" customWidth="1"/>
+    <col min="5" max="5" width="18.5" customWidth="1"/>
+    <col min="8" max="8" width="23" customWidth="1"/>
+    <col min="9" max="9" width="20.33203125" customWidth="1"/>
+    <col min="10" max="10" width="21.83203125" customWidth="1"/>
+    <col min="11" max="11" width="18" customWidth="1"/>
+    <col min="12" max="12" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="27">
+      <c r="A1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="9"/>
+      <c r="H1" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+    </row>
+    <row r="2" spans="1:14" ht="19">
+      <c r="A2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="12">
+        <f>('Amazon-1'!E3:E4-'Amazon-1'!B3:B4)/'Amazon-1'!B3:B4</f>
+        <v>0.30796326119408474</v>
+      </c>
+      <c r="B3" s="12">
+        <f>('Amazon-1'!E6-'Amazon-1'!B6)/'Amazon-1'!B6</f>
+        <v>0.26815838667648556</v>
+      </c>
+      <c r="C3" s="12">
+        <f>('Amazon-1'!E8-'Amazon-1'!B8)/'Amazon-1'!B8</f>
+        <v>0.39209180146550532</v>
+      </c>
+      <c r="D3" s="12">
+        <f>('Amazon-1'!E10-'Amazon-1'!B10)/'Amazon-1'!B10</f>
+        <v>0.42569484615596509</v>
+      </c>
+      <c r="E3" s="12">
+        <f>('Amazon-1'!E16-'Amazon-1'!B16)/'Amazon-1'!B16</f>
+        <v>-1.9111323459149548E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="27">
+      <c r="A7" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="18"/>
+    </row>
+    <row r="8" spans="1:14" ht="19">
+      <c r="A8" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="12">
+        <f>('Amazon-1'!H3-'Amazon-1'!E3)/'Amazon-1'!E3</f>
+        <v>0.3093396152159491</v>
+      </c>
+      <c r="B9" s="12">
+        <f>('Amazon-1'!H6-'Amazon-1'!E6)/'Amazon-1'!E6</f>
+        <v>0.24319688387799954</v>
+      </c>
+      <c r="C9" s="12">
+        <f>('Amazon-1'!H8-'Amazon-1'!E8)/'Amazon-1'!E8</f>
+        <v>0.37193365776144605</v>
+      </c>
+      <c r="D9" s="12">
+        <f>('Amazon-1'!H10-'Amazon-1'!E10)/'Amazon-1'!E10</f>
+        <v>0.30409413219467896</v>
+      </c>
+      <c r="E9" s="12">
+        <f>('Amazon-1'!H16-'Amazon-1'!E16)/'Amazon-1'!E16</f>
+        <v>2.02508524111057</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/amazon_edit.xlsx
+++ b/amazon_edit.xlsx
@@ -8,14 +8,120 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/galvanize/Documents/excel/excel_work/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA4CFD18-821A-8043-80DE-DA7C0430B961}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF200A1-9482-5643-8FAF-37B136989221}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="16540" windowHeight="16260" xr2:uid="{09650164-32A5-5E41-B315-3AC4BDEF06DC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{09650164-32A5-5E41-B315-3AC4BDEF06DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Amazon-1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'Amazon-1'!$A$3:$A$16</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Amazon-1'!$B$3:$B$16</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">'Amazon-1'!$K$3:$K$16</definedName>
+    <definedName name="_xlchart.v1.100" hidden="1">'Amazon-1'!$J$3:$J$16</definedName>
+    <definedName name="_xlchart.v1.101" hidden="1">'Amazon-1'!$K$3:$K$16</definedName>
+    <definedName name="_xlchart.v1.102" hidden="1">'Amazon-1'!$L$3:$L$16</definedName>
+    <definedName name="_xlchart.v1.103" hidden="1">'Amazon-1'!$M$3:$M$16</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">'Amazon-1'!$L$3:$L$16</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">'Amazon-1'!$M$3:$M$16</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">'Amazon-1'!$A$3:$A$16</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">'Amazon-1'!$B$3:$B$16</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">'Amazon-1'!$C$3:$C$16</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">'Amazon-1'!$D$3:$D$16</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">'Amazon-1'!$E$3:$E$16</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">'Amazon-1'!$F$3:$F$16</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">'Amazon-1'!$G$3:$G$16</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Amazon-1'!$C$3:$C$16</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">'Amazon-1'!$H$3:$H$16</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">'Amazon-1'!$I$3:$I$16</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">'Amazon-1'!$J$3:$J$16</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">'Amazon-1'!$K$3:$K$16</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">'Amazon-1'!$L$3:$L$16</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">'Amazon-1'!$M$3:$M$16</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">'Amazon-1'!$A$3:$A$16</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">'Amazon-1'!$B$3:$B$16</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">'Amazon-1'!$C$3:$C$16</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">'Amazon-1'!$D$3:$D$16</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Amazon-1'!$D$3:$D$16</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">'Amazon-1'!$E$3:$E$16</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">'Amazon-1'!$F$3:$F$16</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">'Amazon-1'!$G$3:$G$16</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">'Amazon-1'!$H$3:$H$16</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">'Amazon-1'!$I$3:$I$16</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">'Amazon-1'!$J$3:$J$16</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">'Amazon-1'!$K$3:$K$16</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">'Amazon-1'!$L$3:$L$16</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">'Amazon-1'!$M$3:$M$16</definedName>
+    <definedName name="_xlchart.v1.39" hidden="1">'Amazon-1'!$A$3:$A$16</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'Amazon-1'!$E$3:$E$16</definedName>
+    <definedName name="_xlchart.v1.40" hidden="1">'Amazon-1'!$B$3:$B$16</definedName>
+    <definedName name="_xlchart.v1.41" hidden="1">'Amazon-1'!$C$3:$C$16</definedName>
+    <definedName name="_xlchart.v1.42" hidden="1">'Amazon-1'!$D$3:$D$16</definedName>
+    <definedName name="_xlchart.v1.43" hidden="1">'Amazon-1'!$E$3:$E$16</definedName>
+    <definedName name="_xlchart.v1.44" hidden="1">'Amazon-1'!$F$3:$F$16</definedName>
+    <definedName name="_xlchart.v1.45" hidden="1">'Amazon-1'!$G$3:$G$16</definedName>
+    <definedName name="_xlchart.v1.46" hidden="1">'Amazon-1'!$H$3:$H$16</definedName>
+    <definedName name="_xlchart.v1.47" hidden="1">'Amazon-1'!$I$3:$I$16</definedName>
+    <definedName name="_xlchart.v1.48" hidden="1">'Amazon-1'!$J$3:$J$16</definedName>
+    <definedName name="_xlchart.v1.49" hidden="1">'Amazon-1'!$K$3:$K$16</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'Amazon-1'!$F$3:$F$16</definedName>
+    <definedName name="_xlchart.v1.50" hidden="1">'Amazon-1'!$L$3:$L$16</definedName>
+    <definedName name="_xlchart.v1.51" hidden="1">'Amazon-1'!$M$3:$M$16</definedName>
+    <definedName name="_xlchart.v1.52" hidden="1">'Amazon-1'!$A$3:$A$16</definedName>
+    <definedName name="_xlchart.v1.53" hidden="1">'Amazon-1'!$B$3:$B$16</definedName>
+    <definedName name="_xlchart.v1.54" hidden="1">'Amazon-1'!$C$3:$C$16</definedName>
+    <definedName name="_xlchart.v1.55" hidden="1">'Amazon-1'!$D$3:$D$16</definedName>
+    <definedName name="_xlchart.v1.56" hidden="1">'Amazon-1'!$E$3:$E$16</definedName>
+    <definedName name="_xlchart.v1.57" hidden="1">'Amazon-1'!$F$3:$F$16</definedName>
+    <definedName name="_xlchart.v1.58" hidden="1">'Amazon-1'!$G$3:$G$16</definedName>
+    <definedName name="_xlchart.v1.59" hidden="1">'Amazon-1'!$H$3:$H$16</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'Amazon-1'!$G$3:$G$16</definedName>
+    <definedName name="_xlchart.v1.60" hidden="1">'Amazon-1'!$I$3:$I$16</definedName>
+    <definedName name="_xlchart.v1.61" hidden="1">'Amazon-1'!$J$3:$J$16</definedName>
+    <definedName name="_xlchart.v1.62" hidden="1">'Amazon-1'!$K$3:$K$16</definedName>
+    <definedName name="_xlchart.v1.63" hidden="1">'Amazon-1'!$L$3:$L$16</definedName>
+    <definedName name="_xlchart.v1.64" hidden="1">'Amazon-1'!$M$3:$M$16</definedName>
+    <definedName name="_xlchart.v1.65" hidden="1">'Amazon-1'!$A$3:$A$16</definedName>
+    <definedName name="_xlchart.v1.66" hidden="1">'Amazon-1'!$B$3:$B$16</definedName>
+    <definedName name="_xlchart.v1.67" hidden="1">'Amazon-1'!$C$3:$C$16</definedName>
+    <definedName name="_xlchart.v1.68" hidden="1">'Amazon-1'!$D$3:$D$16</definedName>
+    <definedName name="_xlchart.v1.69" hidden="1">'Amazon-1'!$E$3:$E$16</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'Amazon-1'!$H$3:$H$16</definedName>
+    <definedName name="_xlchart.v1.70" hidden="1">'Amazon-1'!$F$3:$F$16</definedName>
+    <definedName name="_xlchart.v1.71" hidden="1">'Amazon-1'!$G$3:$G$16</definedName>
+    <definedName name="_xlchart.v1.72" hidden="1">'Amazon-1'!$H$3:$H$16</definedName>
+    <definedName name="_xlchart.v1.73" hidden="1">'Amazon-1'!$I$3:$I$16</definedName>
+    <definedName name="_xlchart.v1.74" hidden="1">'Amazon-1'!$J$3:$J$16</definedName>
+    <definedName name="_xlchart.v1.75" hidden="1">'Amazon-1'!$K$3:$K$16</definedName>
+    <definedName name="_xlchart.v1.76" hidden="1">'Amazon-1'!$L$3:$L$16</definedName>
+    <definedName name="_xlchart.v1.77" hidden="1">'Amazon-1'!$M$3:$M$16</definedName>
+    <definedName name="_xlchart.v1.78" hidden="1">'Amazon-1'!$A$3:$A$16</definedName>
+    <definedName name="_xlchart.v1.79" hidden="1">'Amazon-1'!$B$3:$B$16</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'Amazon-1'!$I$3:$I$16</definedName>
+    <definedName name="_xlchart.v1.80" hidden="1">'Amazon-1'!$C$3:$C$16</definedName>
+    <definedName name="_xlchart.v1.81" hidden="1">'Amazon-1'!$D$3:$D$16</definedName>
+    <definedName name="_xlchart.v1.82" hidden="1">'Amazon-1'!$E$3:$E$16</definedName>
+    <definedName name="_xlchart.v1.83" hidden="1">'Amazon-1'!$F$3:$F$16</definedName>
+    <definedName name="_xlchart.v1.84" hidden="1">'Amazon-1'!$G$3:$G$16</definedName>
+    <definedName name="_xlchart.v1.85" hidden="1">'Amazon-1'!$H$3:$H$16</definedName>
+    <definedName name="_xlchart.v1.86" hidden="1">'Amazon-1'!$I$3:$I$16</definedName>
+    <definedName name="_xlchart.v1.87" hidden="1">'Amazon-1'!$J$3:$J$16</definedName>
+    <definedName name="_xlchart.v1.88" hidden="1">'Amazon-1'!$K$3:$K$16</definedName>
+    <definedName name="_xlchart.v1.89" hidden="1">'Amazon-1'!$L$3:$L$16</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'Amazon-1'!$J$3:$J$16</definedName>
+    <definedName name="_xlchart.v1.90" hidden="1">'Amazon-1'!$M$3:$M$16</definedName>
+    <definedName name="_xlchart.v1.91" hidden="1">'Amazon-1'!$A$3:$A$16</definedName>
+    <definedName name="_xlchart.v1.92" hidden="1">'Amazon-1'!$B$3:$B$16</definedName>
+    <definedName name="_xlchart.v1.93" hidden="1">'Amazon-1'!$C$3:$C$16</definedName>
+    <definedName name="_xlchart.v1.94" hidden="1">'Amazon-1'!$D$3:$D$16</definedName>
+    <definedName name="_xlchart.v1.95" hidden="1">'Amazon-1'!$E$3:$E$16</definedName>
+    <definedName name="_xlchart.v1.96" hidden="1">'Amazon-1'!$F$3:$F$16</definedName>
+    <definedName name="_xlchart.v1.97" hidden="1">'Amazon-1'!$G$3:$G$16</definedName>
+    <definedName name="_xlchart.v1.98" hidden="1">'Amazon-1'!$H$3:$H$16</definedName>
+    <definedName name="_xlchart.v1.99" hidden="1">'Amazon-1'!$I$3:$I$16</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -32,7 +138,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t>Total net sales</t>
   </si>
@@ -79,14 +185,20 @@
     <t>2017- 2018 Percentage Growth</t>
   </si>
   <si>
-    <t>Projections for 2019</t>
+    <t>Operating Expenses</t>
+  </si>
+  <si>
+    <t>Total Operating Expenses</t>
+  </si>
+  <si>
+    <t>Projections for 2019 and 2020</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -142,8 +254,16 @@
       <color theme="1"/>
       <name val="Calibri (Body)"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -177,6 +297,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFB7B4FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCFD1FF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -231,7 +357,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -273,6 +399,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -283,6 +413,7 @@
   <colors>
     <mruColors>
       <color rgb="FFB7B4FF"/>
+      <color rgb="FFCFD1FF"/>
       <color rgb="FF9381FF"/>
       <color rgb="FFB80001"/>
     </mruColors>
@@ -296,6 +427,5277 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Amazon-1'!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cost of sales</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>'Amazon-1'!$B$6:$M$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0" formatCode="#,##0">
+                  <c:v>88265</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="#,##0">
+                  <c:v>111934</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="#,##0">
+                  <c:v>139156</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9036-F543-BD35-B79F037DDDBA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="487493472"/>
+        <c:axId val="494269552"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="487493472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="494269552"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="494269552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="487493472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Amazon-1'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total net sales</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>'Amazon-1'!$B$3:$M$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0" formatCode="#,##0">
+                  <c:v>135987</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="#,##0">
+                  <c:v>177866</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="#,##0">
+                  <c:v>232887</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2E2D-F44D-8720-033B67EBEB4E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="494478320"/>
+        <c:axId val="476704816"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="494478320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="476704816"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="476704816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="494478320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Amazon-1'!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Marketing</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>'Amazon-1'!$B$8:$M$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0" formatCode="#,##0">
+                  <c:v>7233</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="#,##0">
+                  <c:v>10069</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="#,##0">
+                  <c:v>13814</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-617C-5640-9BD5-9174EEDBC41F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="474469040"/>
+        <c:axId val="474438224"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="474469040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="474438224"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="474438224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="474469040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Amazon-1'!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>other expenses</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>'Amazon-1'!$B$10:$M$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0" formatCode="#,##0">
+                  <c:v>36303</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="#,##0">
+                  <c:v>51757</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="#,##0">
+                  <c:v>67496</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-51EB-184A-84DB-D5A75773F16F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="487713152"/>
+        <c:axId val="473413040"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="487713152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="473413040"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="473413040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="487713152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Amazon-1'!$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total operating expenses</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>'Amazon-1'!$B$14:$M$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0" formatCode="#,##0">
+                  <c:v>131801</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="#,##0">
+                  <c:v>173760</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="#,##0">
+                  <c:v>220466</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AC02-754A-B5EC-41074185A89E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="473460112"/>
+        <c:axId val="497646960"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="473460112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="497646960"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="497646960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="473460112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Amazon-1'!$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Operating income</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>'Amazon-1'!$B$16:$M$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0" formatCode="#,##0">
+                  <c:v>4186</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="#,##0">
+                  <c:v>4106</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="#,##0">
+                  <c:v>12421</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E8DA-9849-8445-D6232E0774D7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="499376368"/>
+        <c:axId val="491475280"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="499376368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="491475280"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="491475280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="499376368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>565150</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93CA2272-C719-4D41-8D31-3DCCC017A0EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>336550</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BA6AB8A-B9EF-3E4A-AFB2-5C2C37ACC335}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>882650</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>488950</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{035D541B-B221-724A-AA4E-F063A5BEE59C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>387350</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{433A460D-E689-0F4C-9397-A20E755A54A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>539750</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09DA2B51-B952-4A48-BF2F-0DD486C8D20A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>425450</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFFF2804-0D0B-9343-BB76-01A146942A22}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -595,10 +5997,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{033D1CDC-C50D-8F44-A70F-6C040BCEABE3}">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="177" zoomScaleNormal="177" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView zoomScale="177" zoomScaleNormal="177" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -606,12 +6008,12 @@
     <col min="1" max="1" width="32.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:13">
       <c r="A2" s="1"/>
       <c r="B2" s="2">
         <v>2016</v>
@@ -623,8 +6025,14 @@
       <c r="H2" s="2">
         <v>2018</v>
       </c>
+      <c r="K2" s="2">
+        <v>2019</v>
+      </c>
+      <c r="M2" s="2">
+        <v>2020</v>
+      </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:13">
       <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
@@ -643,7 +6051,7 @@
       </c>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:13">
       <c r="A4" s="14"/>
       <c r="B4" s="13"/>
       <c r="C4" s="14"/>
@@ -654,7 +6062,7 @@
       <c r="H4" s="13"/>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:13">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
@@ -664,7 +6072,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:13">
       <c r="A6" s="14" t="s">
         <v>2</v>
       </c>
@@ -683,7 +6091,7 @@
       </c>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:13">
       <c r="A7" s="14"/>
       <c r="B7" s="13"/>
       <c r="C7" s="14"/>
@@ -694,7 +6102,7 @@
       <c r="H7" s="13"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:13">
       <c r="A8" s="14" t="s">
         <v>3</v>
       </c>
@@ -713,7 +6121,7 @@
       </c>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:13">
       <c r="A9" s="14"/>
       <c r="B9" s="13"/>
       <c r="C9" s="14"/>
@@ -724,7 +6132,7 @@
       <c r="H9" s="13"/>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:13">
       <c r="A10" s="14" t="s">
         <v>7</v>
       </c>
@@ -746,7 +6154,7 @@
       </c>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:13">
       <c r="A11" s="14"/>
       <c r="B11" s="13"/>
       <c r="C11" s="14"/>
@@ -757,7 +6165,7 @@
       <c r="H11" s="13"/>
       <c r="I11" s="5"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:13">
       <c r="A12" s="14"/>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
@@ -768,7 +6176,7 @@
       <c r="H12" s="14"/>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:13">
       <c r="A13" s="14"/>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
@@ -779,7 +6187,7 @@
       <c r="H13" s="14"/>
       <c r="I13" s="5"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:13">
       <c r="A14" s="14" t="s">
         <v>4</v>
       </c>
@@ -798,7 +6206,7 @@
       </c>
       <c r="I14" s="5"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:13">
       <c r="A15" s="14"/>
       <c r="B15" s="13"/>
       <c r="C15" s="14"/>
@@ -809,7 +6217,7 @@
       <c r="H15" s="13"/>
       <c r="I15" s="5"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:13">
       <c r="A16" s="14" t="s">
         <v>5</v>
       </c>
@@ -1054,8 +6462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5907B499-E589-944F-8AF7-352125E4A47D}">
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1070,6 +6478,8 @@
     <col min="10" max="10" width="21.83203125" customWidth="1"/>
     <col min="11" max="11" width="18" customWidth="1"/>
     <col min="12" max="12" width="22" customWidth="1"/>
+    <col min="13" max="13" width="27.1640625" customWidth="1"/>
+    <col min="14" max="14" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="27">
@@ -1081,7 +6491,7 @@
       <c r="D1" s="8"/>
       <c r="E1" s="9"/>
       <c r="H1" s="19" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I1" s="20"/>
       <c r="J1" s="20"/>
@@ -1106,10 +6516,31 @@
       <c r="E2" s="11" t="s">
         <v>12</v>
       </c>
+      <c r="H2" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="21" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" ht="21">
       <c r="A3" s="12">
-        <f>('Amazon-1'!E3:E4-'Amazon-1'!B3:B4)/'Amazon-1'!B3:B4</f>
+        <f>('Amazon-1'!E3-'Amazon-1'!B3)/'Amazon-1'!B3</f>
         <v>0.30796326119408474</v>
       </c>
       <c r="B3" s="12">
@@ -1127,6 +6558,14 @@
       <c r="E3" s="12">
         <f>('Amazon-1'!E16-'Amazon-1'!B16)/'Amazon-1'!B16</f>
         <v>-1.9111323459149548E-2</v>
+      </c>
+      <c r="G3" s="22">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="21">
+      <c r="G4" s="22">
+        <v>2020</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="27">
@@ -1179,5 +6618,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/amazon_edit.xlsx
+++ b/amazon_edit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/galvanize/Documents/excel/excel_work/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF200A1-9482-5643-8FAF-37B136989221}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA981B4E-65EC-6145-991B-391C59E6122A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{09650164-32A5-5E41-B315-3AC4BDEF06DC}"/>
   </bookViews>
@@ -137,8 +137,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Galvanize</author>
+  </authors>
+  <commentList>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{BC321D9A-E94A-4B41-9233-A159575B5294}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Galvanize:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
   <si>
     <t>Total net sales</t>
   </si>
@@ -193,12 +227,16 @@
   <si>
     <t>Projections for 2019 and 2020</t>
   </si>
+  <si>
+    <t>For 2019-2020, I predict everything will continue on trend except for operating income, which I assume will spike a bit more.
+There was an article about Amazon not making as much profit in Q2 of 2019 because of rising transportation costs.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -261,6 +299,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -357,7 +408,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -402,7 +453,10 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5483,16 +5537,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>565150</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>184150</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1479550</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1460500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5519,16 +5573,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>336550</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>184150</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1333500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5555,16 +5609,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>882650</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>184150</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>488950</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>412750</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5591,16 +5645,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>387350</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1301750</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5627,16 +5681,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>539750</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>184150</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1454150</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1441450</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5663,16 +5717,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>819150</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>425450</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6459,11 +6513,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5907B499-E589-944F-8AF7-352125E4A47D}">
-  <dimension ref="A1:N9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5907B499-E589-944F-8AF7-352125E4A47D}">
+  <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6559,14 +6613,10 @@
         <f>('Amazon-1'!E16-'Amazon-1'!B16)/'Amazon-1'!B16</f>
         <v>-1.9111323459149548E-2</v>
       </c>
-      <c r="G3" s="22">
-        <v>2019</v>
-      </c>
+      <c r="G3" s="22"/>
     </row>
     <row r="4" spans="1:14" ht="21">
-      <c r="G4" s="22">
-        <v>2020</v>
-      </c>
+      <c r="G4" s="22"/>
     </row>
     <row r="7" spans="1:14" ht="27">
       <c r="A7" s="16" t="s">
@@ -6616,8 +6666,14 @@
         <v>2.02508524111057</v>
       </c>
     </row>
+    <row r="13" spans="1:14" ht="221">
+      <c r="A13" s="23" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/amazon_edit.xlsx
+++ b/amazon_edit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/galvanize/Documents/excel/excel_work/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA981B4E-65EC-6145-991B-391C59E6122A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF8CF456-7AA7-AC43-A3F2-20971A064B02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{09650164-32A5-5E41-B315-3AC4BDEF06DC}"/>
   </bookViews>
@@ -140,31 +140,18 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>Galvanize</author>
+    <author>tc={33568108-B13E-0147-8DA7-F94F9BEC85AA}</author>
   </authors>
   <commentList>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{BC321D9A-E94A-4B41-9233-A159575B5294}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{33568108-B13E-0147-8DA7-F94F9BEC85AA}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Galvanize:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    For 2019-2020, I predict everything will continue on trend except for operating income, which I assume will spike a bit more.
+There was an article about Amazon not making as much profit in Q2 of 2019 because of rising transportation costs.
+Reply:
+    I would also assume though Amazon said that this year was the highest selling Prime day ever, net sales will still continue to stay similar. Amazon Prime day in 2018 was the biggest ever before 2019, and the total net sales didn't grow</t>
       </text>
     </comment>
   </commentList>
@@ -172,7 +159,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t>Total net sales</t>
   </si>
@@ -227,16 +214,12 @@
   <si>
     <t>Projections for 2019 and 2020</t>
   </si>
-  <si>
-    <t>For 2019-2020, I predict everything will continue on trend except for operating income, which I assume will spike a bit more.
-There was an article about Amazon not making as much profit in Q2 of 2019 because of rising transportation costs.</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -301,13 +284,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
@@ -5754,6 +5730,12 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Carlene Williams" id="{102CAF71-9983-594B-868E-226F7F9198C6}" userId="S::carlene.williams@galvanizehq.onmicrosoft.com::92d5ea84-26ec-4e4c-b559-f4d822deab63" providerId="AD"/>
+</personList>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -6047,6 +6029,18 @@
     </a:ext>
   </a:extLst>
 </a:theme>
+</file>
+
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="H1" dT="2019-10-07T20:40:32.48" personId="{102CAF71-9983-594B-868E-226F7F9198C6}" id="{33568108-B13E-0147-8DA7-F94F9BEC85AA}">
+    <text>For 2019-2020, I predict everything will continue on trend except for operating income, which I assume will spike a bit more.
+There was an article about Amazon not making as much profit in Q2 of 2019 because of rising transportation costs.</text>
+  </threadedComment>
+  <threadedComment ref="H1" dT="2019-10-07T20:43:10.71" personId="{102CAF71-9983-594B-868E-226F7F9198C6}" id="{69AEA018-D3FC-C648-BCFA-DC9BA1240A23}" parentId="{33568108-B13E-0147-8DA7-F94F9BEC85AA}">
+    <text>I would also assume though Amazon said that this year was the highest selling Prime day ever, net sales will still continue to stay similar. Amazon Prime day in 2018 was the biggest ever before 2019, and the total net sales didn't grow</text>
+  </threadedComment>
+</ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6516,7 +6510,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5907B499-E589-944F-8AF7-352125E4A47D}">
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -6666,10 +6660,8 @@
         <v>2.02508524111057</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="221">
-      <c r="A13" s="23" t="s">
-        <v>18</v>
-      </c>
+    <row r="13" spans="1:14">
+      <c r="A13" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
